--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-03T17:40:42+00:00</t>
+    <t>2024-12-04T09:18:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T09:18:19+00:00</t>
+    <t>2024-12-04T09:49:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T09:49:47+00:00</t>
+    <t>2024-12-04T11:23:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -7488,7 +7488,7 @@
         <v>91</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>78</v>
@@ -7608,7 +7608,7 @@
         <v>91</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>78</v>
@@ -7728,7 +7728,7 @@
         <v>91</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>78</v>
@@ -7848,7 +7848,7 @@
         <v>91</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>78</v>
@@ -7968,7 +7968,7 @@
         <v>91</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>78</v>
@@ -8088,7 +8088,7 @@
         <v>91</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>78</v>
@@ -8208,7 +8208,7 @@
         <v>91</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>78</v>
@@ -8328,7 +8328,7 @@
         <v>91</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>78</v>
@@ -8448,7 +8448,7 @@
         <v>91</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>78</v>
@@ -8568,7 +8568,7 @@
         <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>78</v>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T11:23:03+00:00</t>
+    <t>2024-12-04T13:30:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T13:30:21+00:00</t>
+    <t>2024-12-05T17:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-05T17:47:14+00:00</t>
+    <t>2024-12-06T16:44:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-06T16:44:21+00:00</t>
+    <t>2024-12-06T17:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-06T17:37:38+00:00</t>
+    <t>2024-12-06T18:08:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T16:32:50+00:00</t>
+    <t>2024-12-09T16:49:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T16:49:27+00:00</t>
+    <t>2024-12-09T17:27:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T17:27:37+00:00</t>
+    <t>2024-12-09T17:49:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T17:49:22+00:00</t>
+    <t>2024-12-09T18:09:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T18:09:54+00:00</t>
+    <t>2024-12-10T08:23:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/patch-exemples-saisie-offre/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T08:23:40+00:00</t>
+    <t>2024-12-10T13:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
